--- a/品質管理/プロフィール編集.xlsx
+++ b/品質管理/プロフィール編集.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\webアプリ開発\品質管理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\品質管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC8FA5F-F731-4269-B3CE-17F20B939E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2CF37B-052D-43C1-AE39-6E5E2B1E588F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{F6DCE0A2-E8BE-4A5A-BF9B-753C02F5D2E6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="44">
   <si>
     <t>項目</t>
     <rPh sb="0" eb="2">
@@ -377,6 +377,10 @@
   </si>
   <si>
     <t>alert「このフィールドを入力してください」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -479,7 +483,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -514,6 +518,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -835,7 +842,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA1FD49-3353-41D8-BD0A-47960824CA33}">
   <dimension ref="B2:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -863,7 +872,9 @@
       <c r="B4" s="6">
         <v>1</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D4" s="6" t="s">
         <v>24</v>
       </c>
@@ -875,7 +886,7 @@
       <c r="B5" s="6">
         <v>2</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="6" t="s">
         <v>25</v>
       </c>
@@ -884,7 +895,9 @@
       <c r="B6" s="6">
         <v>3</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="D6" s="6" t="s">
         <v>26</v>
       </c>
@@ -893,7 +906,9 @@
       <c r="B7" s="6">
         <v>4</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="D7" s="6" t="s">
         <v>27</v>
       </c>
@@ -902,7 +917,9 @@
       <c r="B8" s="6">
         <v>5</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="D8" s="6" t="s">
         <v>28</v>
       </c>
@@ -911,7 +928,9 @@
       <c r="B9" s="6">
         <v>6</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C9" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="D9" s="6" t="s">
         <v>29</v>
       </c>
@@ -920,7 +939,9 @@
       <c r="B10" s="6">
         <v>7</v>
       </c>
-      <c r="C10" s="6"/>
+      <c r="C10" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="D10" s="6" t="s">
         <v>30</v>
       </c>
@@ -929,7 +950,9 @@
       <c r="B11" s="6">
         <v>8</v>
       </c>
-      <c r="C11" s="6"/>
+      <c r="C11" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="D11" s="6" t="s">
         <v>31</v>
       </c>
@@ -938,7 +961,9 @@
       <c r="B12" s="6">
         <v>9</v>
       </c>
-      <c r="C12" s="6"/>
+      <c r="C12" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="D12" s="6" t="s">
         <v>32</v>
       </c>
@@ -947,7 +972,9 @@
       <c r="B13" s="6">
         <v>10</v>
       </c>
-      <c r="C13" s="6"/>
+      <c r="C13" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="D13" s="6" t="s">
         <v>33</v>
       </c>
@@ -962,14 +989,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{785E3D79-E37F-47A8-8468-9B2AB40F84CD}">
   <dimension ref="B1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="4" max="4" width="25.125" customWidth="1"/>
     <col min="5" max="5" width="14.125" customWidth="1"/>
     <col min="6" max="6" width="12.25" customWidth="1"/>
-    <col min="7" max="7" width="17.625" customWidth="1"/>
+    <col min="7" max="7" width="34.375" customWidth="1"/>
     <col min="9" max="9" width="27.375" customWidth="1"/>
     <col min="10" max="10" width="22.625" customWidth="1"/>
   </cols>
@@ -1055,7 +1084,9 @@
       <c r="B12" s="6">
         <v>1</v>
       </c>
-      <c r="C12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D12" s="6" t="s">
         <v>10</v>
       </c>
@@ -1080,11 +1111,13 @@
       <c r="B13" s="6">
         <v>2</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="9" t="s">
+      <c r="C13" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="6" t="s">
@@ -1105,10 +1138,12 @@
       <c r="B14" s="6">
         <v>3</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9" t="s">
+      <c r="C14" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="6" t="s">
@@ -1126,10 +1161,12 @@
       <c r="B15" s="6">
         <v>4</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
+      <c r="C15" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
       <c r="G15" s="6" t="s">
         <v>14</v>
       </c>
@@ -1145,11 +1182,13 @@
       <c r="B16" s="6">
         <v>5</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9" t="s">
+      <c r="C16" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12" t="s">
         <v>16</v>
       </c>
       <c r="H16" s="10" t="s">
@@ -1169,11 +1208,13 @@
       <c r="B17" s="6">
         <v>6</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
+      <c r="C17" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
       <c r="J17" s="6" t="s">
@@ -1184,11 +1225,13 @@
       <c r="B18" s="6">
         <v>7</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
+      <c r="C18" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
       <c r="H18" s="6" t="s">
         <v>18</v>
       </c>
@@ -1218,39 +1261,43 @@
       <c r="D20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="2:10" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B21" s="4">
         <v>1</v>
       </c>
-      <c r="C21" s="4"/>
+      <c r="C21" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="D21" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G21" s="9"/>
+      <c r="G21" s="12"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B22" s="4">
         <v>2</v>
       </c>
-      <c r="C22" s="3"/>
+      <c r="C22" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G22" s="9"/>
+      <c r="G22" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/品質管理/プロフィール編集.xlsx
+++ b/品質管理/プロフィール編集.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\品質管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2CF37B-052D-43C1-AE39-6E5E2B1E588F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B290EB-80DF-4E5E-95D8-B24E39F5D7B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{F6DCE0A2-E8BE-4A5A-BF9B-753C02F5D2E6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F6DCE0A2-E8BE-4A5A-BF9B-753C02F5D2E6}"/>
   </bookViews>
   <sheets>
     <sheet name="画面設計" sheetId="2" r:id="rId1"/>
@@ -842,9 +842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA1FD49-3353-41D8-BD0A-47960824CA33}">
   <dimension ref="B2:E13"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -989,9 +987,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{785E3D79-E37F-47A8-8468-9B2AB40F84CD}">
   <dimension ref="B1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
